--- a/project/src/assets/sample.xlsx
+++ b/project/src/assets/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\Room_Arrangement_Program\project\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CBDF18-E098-48EA-A2CF-C300978F231D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C7CB8A-3971-4604-90BD-F38D33CBBA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="1190" windowWidth="14720" windowHeight="8710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,18 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>단체명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>남자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>여자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>강서중앙교회</t>
@@ -190,18 +186,34 @@
   </si>
   <si>
     <t>행복인교회</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>personnel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,19 +316,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -610,32 +628,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
@@ -643,7 +661,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
@@ -651,55 +669,55 @@
     </row>
     <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>29</v>
@@ -707,15 +725,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -723,7 +741,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>17</v>
@@ -731,7 +749,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -739,7 +757,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -747,15 +765,15 @@
     </row>
     <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -763,23 +781,23 @@
     </row>
     <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -787,15 +805,15 @@
     </row>
     <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
@@ -803,7 +821,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
@@ -811,7 +829,7 @@
     </row>
     <row r="26" spans="1:2" ht="32" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
@@ -819,31 +837,31 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="48" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -851,23 +869,23 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B31" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="B32" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
         <v>6</v>
@@ -875,7 +893,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
@@ -883,23 +901,23 @@
     </row>
     <row r="35" spans="1:2" ht="32" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B35" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A36" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="B36" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
         <v>6</v>
@@ -907,7 +925,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -915,15 +933,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B39" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A40" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="B40" s="2">
         <v>8</v>
@@ -931,23 +949,23 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
         <v>8</v>
@@ -955,46 +973,46 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A47" s="4" t="s">
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B47" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A48" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="B48" s="2">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1017,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -1046,7 +1064,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
@@ -1054,55 +1072,55 @@
     </row>
     <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>22</v>
@@ -1110,15 +1128,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1126,7 +1144,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>9</v>
@@ -1134,7 +1152,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -1142,7 +1160,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1150,15 +1168,15 @@
     </row>
     <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>7</v>
@@ -1166,23 +1184,23 @@
     </row>
     <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -1190,15 +1208,15 @@
     </row>
     <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
         <v>11</v>
@@ -1206,7 +1224,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>5</v>
@@ -1214,7 +1232,7 @@
     </row>
     <row r="26" spans="1:2" ht="32" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
@@ -1222,31 +1240,31 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="48" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
         <v>6</v>
@@ -1254,23 +1272,23 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
         <v>5</v>
@@ -1278,7 +1296,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -1286,23 +1304,23 @@
     </row>
     <row r="35" spans="1:2" ht="32" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B36" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="B37" s="2">
         <v>7</v>
@@ -1310,7 +1328,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
         <v>6</v>
@@ -1318,15 +1336,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B39" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A40" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="B40" s="2">
         <v>5</v>
@@ -1334,23 +1352,23 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
         <v>8</v>
@@ -1358,46 +1376,46 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="32" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="A48" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="B48" s="2">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>